--- a/GUAIBA.xlsx
+++ b/GUAIBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB0060E-147E-4AD1-9340-940BC635A625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F14037-CBB0-4751-B1F8-65B1EFCE8BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1074,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1134,36 +1121,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1202,14 +1165,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,7 +1213,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{237D8A27-CA8D-496E-828E-DC492B8636E4}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{AACF7EA1-E029-46D0-8AFF-4F1ABA1D30A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1285,10 +1243,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0304A231-E2ED-4A0D-8C53-E28E82736FD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B237BE04-4049-4BD8-8D1E-5FD5F479F32F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1284,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A130A7DC-F40B-4481-AB72-181BE07A13C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE243E67-9473-477D-BE4E-2F190FE70ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1347,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF2B6A3-2593-4635-92D5-3E19D8A55182}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43B1243-9E44-496A-9583-7D1DCB126C94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1366,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC8C5AA-6DA6-202A-1F98-DA37B9454C24}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F49C1C-8A6E-2C7A-90C1-7BF40C74C9A1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1457,7 +1415,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4904E643-135D-1BCE-F670-B8790B9FC8EF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22886372-915E-B9B6-2DCB-C9828DCA473E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1476,7 +1434,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1373044E-87FD-ECCB-3329-F41E38406D0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501EDC74-1F50-6D21-45B7-E07AD619C15B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1507,7 +1465,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2BF55A-0E35-A5AB-3126-FCAB92D31BD9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE91513-7DDB-A7CD-896F-21235EE6E1F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1538,7 +1496,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C9BB4F-5B18-CA8F-BDAB-AAAE5DBC47F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463811CB-B1F1-C595-ED0A-4501D68DE098}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1581,7 +1539,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82E5C60-E1A5-450E-9989-FD9931D8689A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD04EB1-AD0C-45A9-ABA9-127B036E0D55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1577,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A123F0E2-5C82-463D-ABA2-8CB879FE9878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E31314-0413-4FCB-9F44-68C0C2CC9AD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1620,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178F0C1C-E2C7-4241-91CE-CE27309BBE33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C6DE90-2393-4144-8C92-B327259624C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8569CAD9-B54F-4344-ADE4-A37F94EF5B2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E428B0DC-48CB-4519-BD85-CC2514BD83BA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1987,98 +1945,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5342,19 +5300,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5377,79 +5335,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5474,54 +5432,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5532,43 +5491,43 @@
       <c r="B2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45231</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>4712</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>31042</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>3425</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>300</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5599,25 +5558,24 @@
       <c r="B1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="32">
         <v>240</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="35">
-        <v>240</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>1.5870916545430502E-2</v>
       </c>
     </row>

--- a/GUAIBA.xlsx
+++ b/GUAIBA.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F14037-CBB0-4751-B1F8-65B1EFCE8BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA86F318-55BF-4E7E-9DE4-AC9516EBBB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="309">
   <si>
     <t>COMARCA</t>
   </si>
@@ -941,6 +942,18 @@
   </si>
   <si>
     <t>GUAÍBA</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Validou posto que não existe na comarca</t>
   </si>
 </sst>
 </file>
@@ -950,7 +963,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1016,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1017,7 +1043,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1052,6 +1078,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1124,9 +1156,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,12 +1240,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AACF7EA1-E029-46D0-8AFF-4F1ABA1D30A9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F665150D-EE7C-4C49-B41D-F433E6DE60A7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,10 +1279,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B237BE04-4049-4BD8-8D1E-5FD5F479F32F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191B5E5-77AB-427F-B59D-9449E38A826B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1320,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE243E67-9473-477D-BE4E-2F190FE70ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A297486-D618-4224-AD64-A28053B9772C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1383,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43B1243-9E44-496A-9583-7D1DCB126C94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDB349B-1DDC-4FCD-905B-98680445EDA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1402,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F49C1C-8A6E-2C7A-90C1-7BF40C74C9A1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B93EB44-FA2C-C29B-2976-C0A00157C24B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1451,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22886372-915E-B9B6-2DCB-C9828DCA473E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75356FD-5E9A-0D2E-4692-A805FA893850}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1434,7 +1470,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501EDC74-1F50-6D21-45B7-E07AD619C15B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762BFE73-44A7-E738-136C-4B12E515E769}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1501,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE91513-7DDB-A7CD-896F-21235EE6E1F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961838C0-2790-D922-5EB8-AB52CC9E214D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1496,7 +1532,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463811CB-B1F1-C595-ED0A-4501D68DE098}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1618C4D4-E9A8-990C-AC1D-25ED452971FA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1539,7 +1575,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD04EB1-AD0C-45A9-ABA9-127B036E0D55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0157D73-3091-4BD1-81E5-EFEF8E716BFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1613,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E31314-0413-4FCB-9F44-68C0C2CC9AD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0879FD8C-BF2D-42D4-9875-BC4C54254796}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1656,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C6DE90-2393-4144-8C92-B327259624C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12AE0202-3AA1-4DC6-8D18-8D1362FA84CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E428B0DC-48CB-4519-BD85-CC2514BD83BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2386B70F-7BA4-44EC-934D-6CAF94A172A7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1945,98 +1981,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="36"/>
+    <col min="6" max="6" width="2" style="36" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5582,4 +5618,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/GUAIBA.xlsx
+++ b/GUAIBA.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA86F318-55BF-4E7E-9DE4-AC9516EBBB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B8C170-99BF-47D8-949F-8D452CDE77CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="306">
   <si>
     <t>COMARCA</t>
   </si>
@@ -933,15 +932,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>GUAÍBA</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1158,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,21 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,7 +1224,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F665150D-EE7C-4C49-B41D-F433E6DE60A7}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{520EFF6F-2F3F-40CE-B387-EAAB49C7D8B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,10 +1254,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191B5E5-77AB-427F-B59D-9449E38A826B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581F52DA-9EDB-4ECD-B9AB-DFAE7EC75C21}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1295,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A297486-D618-4224-AD64-A28053B9772C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8B1350-1C01-4A86-878A-07EEA22B0011}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1358,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDB349B-1DDC-4FCD-905B-98680445EDA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812AF64F-E386-4101-A4F7-293E5DE373AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1377,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B93EB44-FA2C-C29B-2976-C0A00157C24B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B98D699-64E3-F7F2-D9B7-16B6F9F4D26E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1451,7 +1426,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75356FD-5E9A-0D2E-4692-A805FA893850}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9014830-016E-6D62-4847-95BB55764887}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1470,7 +1445,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762BFE73-44A7-E738-136C-4B12E515E769}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8261A0-ADF6-95AA-0362-EA107ED2C454}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1501,7 +1476,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961838C0-2790-D922-5EB8-AB52CC9E214D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DD8935-D19D-1EB4-4A28-DC9191B56379}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1507,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1618C4D4-E9A8-990C-AC1D-25ED452971FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98BD620-88BC-5921-D020-D7BAD76DFA5F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1575,7 +1550,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0157D73-3091-4BD1-81E5-EFEF8E716BFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98050701-BF79-4586-8E3C-E32BE6BF0456}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1588,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0879FD8C-BF2D-42D4-9875-BC4C54254796}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DF7EBA-5435-49AC-998F-88F26607715F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1631,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12AE0202-3AA1-4DC6-8D18-8D1362FA84CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63AA760-DA0D-4F43-BB00-C748EF40E8DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2386B70F-7BA4-44EC-934D-6CAF94A172A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887FFD82-C9AF-4969-83DF-AE353A064D34}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1981,98 +1956,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5574,54 +5549,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="32">
-        <v>240</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.5870916545430502E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5634,25 +5561,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>305</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/GUAIBA.xlsx
+++ b/GUAIBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B8C170-99BF-47D8-949F-8D452CDE77CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{601032D5-464A-412E-B483-92D2E9C4C1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1224,7 +1224,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{520EFF6F-2F3F-40CE-B387-EAAB49C7D8B0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C2023F50-CC40-46F7-B9ED-6676FA79C300}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1254,10 +1254,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581F52DA-9EDB-4ECD-B9AB-DFAE7EC75C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54764DA-BD69-4D73-808B-D4B9EE0DD492}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,7 +1295,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8B1350-1C01-4A86-878A-07EEA22B0011}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AC0482-D488-47EE-8567-A703C9ABBA0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1358,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812AF64F-E386-4101-A4F7-293E5DE373AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C684EE5D-8B75-4794-9170-F0CB13F44F90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1377,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B98D699-64E3-F7F2-D9B7-16B6F9F4D26E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BDAEAE5-47B5-F5CD-2023-E2E2847D89D0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1426,7 +1426,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9014830-016E-6D62-4847-95BB55764887}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF340CE-5E75-FAD0-E93D-2836F47417A8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1445,7 +1445,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8261A0-ADF6-95AA-0362-EA107ED2C454}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20ABC4C8-3A27-1942-8E98-055676843EF6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DD8935-D19D-1EB4-4A28-DC9191B56379}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D35A9D-31BE-86BE-0D61-7F76A3A50176}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98BD620-88BC-5921-D020-D7BAD76DFA5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14D0659-E017-F7C3-C495-2876D066EDF5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98050701-BF79-4586-8E3C-E32BE6BF0456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A86522-FCB6-4D91-BA79-F0CD1D83E99D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1588,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DF7EBA-5435-49AC-998F-88F26607715F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB0F932-F1CB-43E5-8EB2-58823C347EA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,50 +1613,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63AA760-DA0D-4F43-BB00-C748EF40E8DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1944,7 +1900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887FFD82-C9AF-4969-83DF-AE353A064D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47303E3-8EF5-4291-83AD-EE0848640B53}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
